--- a/gap_properties_cs.xlsx
+++ b/gap_properties_cs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,29 +488,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NDL Authority ID</t>
+          <t>RERO ID (obsolete)</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1180288461538462</v>
+        <v>0.1290865384615385</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1180288461538462</v>
+        <v>0.1290865384615385</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2360576923076923</v>
+        <v>0.2581730769230769</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05901442307692308</v>
+        <v>0.06454326923076924</v>
       </c>
       <c r="I2" t="n">
-        <v>1.15449968533669</v>
+        <v>1.17401166558652</v>
       </c>
     </row>
     <row r="3">
@@ -521,29 +521,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FAST ID</t>
+          <t>IdRef ID</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1009615384615385</v>
+        <v>0.4449519230769231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1009615384615385</v>
+        <v>0.4449519230769231</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2019230769230769</v>
+        <v>0.8899038461538461</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05048076923076923</v>
+        <v>0.2224759615384616</v>
       </c>
       <c r="I3" t="n">
-        <v>1.126506024096386</v>
+        <v>5.041484716157203</v>
       </c>
     </row>
     <row r="4">
@@ -554,29 +554,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CiNii Books author ID</t>
+          <t>NORAF ID</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1899038461538461</v>
+        <v>0.2509615384615385</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1899038461538461</v>
+        <v>0.2509615384615385</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3798076923076923</v>
+        <v>0.5019230769230769</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09495192307692307</v>
+        <v>0.1254807692307693</v>
       </c>
       <c r="I4" t="n">
-        <v>1.306201550387597</v>
+        <v>1.503861003861004</v>
       </c>
     </row>
     <row r="5">
@@ -587,29 +587,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISNI</t>
+          <t>CONOR.SI ID</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4790865384615385</v>
+        <v>0.1067307692307692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4790865384615385</v>
+        <v>0.1067307692307692</v>
       </c>
       <c r="F5" t="n">
-        <v>0.958173076923077</v>
+        <v>0.2134615384615385</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2395432692307692</v>
+        <v>0.05336538461538461</v>
       </c>
       <c r="I5" t="n">
-        <v>12.45402298850576</v>
+        <v>1.135696821515892</v>
       </c>
     </row>
     <row r="6">
@@ -620,29 +620,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NUKAT ID</t>
+          <t>name in native language</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3932692307692308</v>
+        <v>0.1418269230769231</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3932692307692308</v>
+        <v>0.1418269230769231</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7865384615384615</v>
+        <v>0.2836538461538461</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1966346153846154</v>
+        <v>0.07091346153846154</v>
       </c>
       <c r="I6" t="n">
-        <v>2.842342342342342</v>
+        <v>1.197986577181208</v>
       </c>
     </row>
     <row r="7">
@@ -653,29 +653,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IdRef ID</t>
+          <t>NUKAT ID</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4454326923076923</v>
+        <v>0.3949519230769231</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4454326923076923</v>
+        <v>0.3949519230769231</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8908653846153847</v>
+        <v>0.7899038461538461</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2227163461538461</v>
+        <v>0.1974759615384616</v>
       </c>
       <c r="I7" t="n">
-        <v>5.08149779735683</v>
+        <v>2.879862700228832</v>
       </c>
     </row>
     <row r="8">
@@ -686,29 +686,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Canadiana Name Authority ID</t>
+          <t>CiNii Research ID</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0.5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1473557692307693</v>
+        <v>0.1903846153846153</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1473557692307693</v>
+        <v>0.1903846153846153</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2947115384615385</v>
+        <v>0.3807692307692308</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07367788461538463</v>
+        <v>0.09519230769230767</v>
       </c>
       <c r="I8" t="n">
-        <v>1.20892978868439</v>
+        <v>1.307453416149068</v>
       </c>
     </row>
     <row r="9">
@@ -719,29 +719,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bibliothèque nationale de France ID</t>
+          <t>CiNii Books author ID</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2733173076923077</v>
+        <v>0.1935096153846154</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2733173076923077</v>
+        <v>0.1935096153846154</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5466346153846153</v>
+        <v>0.3870192307692308</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1366586538461539</v>
+        <v>0.0967548076923077</v>
       </c>
       <c r="I9" t="n">
-        <v>1.602863202545069</v>
+        <v>1.315686274509804</v>
       </c>
     </row>
     <row r="10">
@@ -752,29 +752,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SHARE Catalogue author ID</t>
+          <t>PLWABN ID</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2317307692307692</v>
+        <v>0.165625</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2317307692307692</v>
+        <v>0.165625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4634615384615385</v>
+        <v>0.33125</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1158653846153846</v>
+        <v>0.0828125</v>
       </c>
       <c r="I10" t="n">
-        <v>1.431899641577061</v>
+        <v>1.247663551401869</v>
       </c>
     </row>
     <row r="11">
@@ -785,29 +785,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RERO ID (obsolete)</t>
+          <t>FAST ID</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1262019230769231</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1262019230769231</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2524038461538461</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06310096153846154</v>
+        <v>0.05048076923076923</v>
       </c>
       <c r="I11" t="n">
-        <v>1.168810289389068</v>
+        <v>1.126506024096386</v>
       </c>
     </row>
     <row r="12">
@@ -818,29 +818,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PLWABN ID</t>
+          <t>Nationale Thesaurus voor Auteursnamen ID</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1641826923076923</v>
+        <v>0.3887019230769231</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1641826923076923</v>
+        <v>0.3887019230769231</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3283653846153846</v>
+        <v>0.7774038461538462</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08209134615384615</v>
+        <v>0.1943509615384615</v>
       </c>
       <c r="I12" t="n">
-        <v>1.244452397995705</v>
+        <v>2.74622030237581</v>
       </c>
     </row>
     <row r="13">
@@ -851,29 +851,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nationale Thesaurus voor Auteursnamen ID</t>
+          <t>WorldCat Identities ID (superseded)</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3884615384615385</v>
+        <v>0.4723557692307692</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3884615384615385</v>
+        <v>0.4723557692307692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7769230769230769</v>
+        <v>0.9447115384615384</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1942307692307693</v>
+        <v>0.2361778846153846</v>
       </c>
       <c r="I13" t="n">
-        <v>2.741379310344828</v>
+        <v>9.543478260869565</v>
       </c>
     </row>
     <row r="14">
@@ -884,29 +884,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CiNii Research ID</t>
+          <t>Canadiana Name Authority ID</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1896634615384616</v>
+        <v>0.1507211538461538</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1896634615384616</v>
+        <v>0.1507211538461538</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3793269230769231</v>
+        <v>0.3014423076923077</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09483173076923077</v>
+        <v>0.07536057692307692</v>
       </c>
       <c r="I14" t="n">
-        <v>1.30557707203718</v>
+        <v>1.215760495526497</v>
       </c>
     </row>
     <row r="15">
@@ -917,29 +917,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>National Library of Israel J9U ID</t>
+          <t>SHARE Catalogue author ID</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0.5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.434375</v>
+        <v>0.2319711538461539</v>
       </c>
       <c r="E15" t="n">
-        <v>0.434375</v>
+        <v>0.2319711538461539</v>
       </c>
       <c r="F15" t="n">
-        <v>0.86875</v>
+        <v>0.4639423076923077</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2171875</v>
+        <v>0.1159855769230769</v>
       </c>
       <c r="I15" t="n">
-        <v>4.30952380952381</v>
+        <v>1.432735426008969</v>
       </c>
     </row>
     <row r="16">
@@ -950,29 +950,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>name in native language</t>
+          <t>Prabook ID</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1427884615384615</v>
+        <v>0.1435096153846153</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1427884615384615</v>
+        <v>0.1435096153846153</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2855769230769231</v>
+        <v>0.2870192307692307</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07139423076923078</v>
+        <v>0.07175480769230769</v>
       </c>
       <c r="I16" t="n">
-        <v>1.199865410497981</v>
+        <v>1.201281186783547</v>
       </c>
     </row>
     <row r="17">
@@ -983,29 +983,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Prabook ID</t>
+          <t>ISNI</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1430288461538461</v>
+        <v>0.4793269230769231</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1430288461538461</v>
+        <v>0.4793269230769231</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2860576923076923</v>
+        <v>0.9586538461538462</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07151442307692307</v>
+        <v>0.2396634615384615</v>
       </c>
       <c r="I17" t="n">
-        <v>1.2003367003367</v>
+        <v>12.59302325581397</v>
       </c>
     </row>
     <row r="18">
@@ -1023,22 +1023,22 @@
         <v>0.5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1439903846153846</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1439903846153846</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2879807692307692</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0719951923076923</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="I18" t="n">
-        <v>1.202228224172856</v>
+        <v>1.202702702702703</v>
       </c>
     </row>
     <row r="19">
@@ -1049,29 +1049,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NORAF ID</t>
+          <t>Bibliothèque nationale de France ID</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0.5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>0.2728365384615384</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>0.2728365384615384</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5</v>
+        <v>0.5456730769230769</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0.125</v>
+        <v>0.1364182692307692</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5</v>
+        <v>1.6005291005291</v>
       </c>
     </row>
     <row r="20">
@@ -1082,29 +1082,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KBR person ID</t>
+          <t>National Library of Israel J9U ID</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0.5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1362980769230769</v>
+        <v>0.4348557692307693</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1362980769230769</v>
+        <v>0.4348557692307693</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2725961538461538</v>
+        <v>0.8697115384615385</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06814903846153847</v>
+        <v>0.2174278846153846</v>
       </c>
       <c r="I20" t="n">
-        <v>1.187376074025116</v>
+        <v>4.337638376383763</v>
       </c>
     </row>
     <row r="21">
@@ -1115,29 +1115,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CONOR.SI ID</t>
+          <t>NDL Authority ID</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0.5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1040865384615385</v>
+        <v>0.11875</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1040865384615385</v>
+        <v>0.11875</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2081730769230769</v>
+        <v>0.2375</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05204326923076923</v>
+        <v>0.059375</v>
       </c>
       <c r="I21" t="n">
-        <v>1.131451123254402</v>
+        <v>1.155737704918033</v>
       </c>
     </row>
     <row r="22">
@@ -1148,29 +1148,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WorldCat Identities ID (superseded)</t>
+          <t>KBR person ID</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4735576923076923</v>
+        <v>0.1372596153846154</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4735576923076923</v>
+        <v>0.1372596153846154</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9471153846153846</v>
+        <v>0.2745192307692308</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2367788461538461</v>
+        <v>0.0686298076923077</v>
       </c>
       <c r="I22" t="n">
-        <v>9.954545454545448</v>
+        <v>1.189198144466534</v>
       </c>
     </row>
     <row r="23">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Library of Congress authority ID</t>
+          <t>member of</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0.5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.475</v>
+        <v>0.2358173076923077</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4747596153846154</v>
+        <v>0.2355769230769231</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9495192307692308</v>
+        <v>0.4711538461538462</v>
       </c>
       <c r="G23" t="n">
-        <v>1.998987854251012</v>
+        <v>1.99796126401631</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2372596153846153</v>
+        <v>0.1176682692307693</v>
       </c>
       <c r="I23" t="n">
-        <v>10.39999999999999</v>
+        <v>1.445</v>
       </c>
     </row>
     <row r="24">
@@ -1214,29 +1214,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>member of</t>
+          <t>Scopus author ID</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0.5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2365384615384616</v>
+        <v>0.1447115384615385</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2362980769230769</v>
+        <v>0.1444711538461539</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4725961538461538</v>
+        <v>0.2889423076923077</v>
       </c>
       <c r="G24" t="n">
-        <v>1.997967479674797</v>
+        <v>1.996677740863787</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1180288461538462</v>
+        <v>0.0721153846153846</v>
       </c>
       <c r="I24" t="n">
-        <v>1.447584320875114</v>
+        <v>1.202839756592292</v>
       </c>
     </row>
     <row r="25">
@@ -1247,29 +1247,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Scopus author ID</t>
+          <t>Commons category</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0.5</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1420673076923077</v>
+        <v>0.1978365384615385</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1418269230769231</v>
+        <v>0.1973557692307692</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2836538461538461</v>
+        <v>0.3947115384615385</v>
       </c>
       <c r="G25" t="n">
-        <v>1.996615905245347</v>
+        <v>1.995139732685298</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07079326923076923</v>
+        <v>0.0984375</v>
       </c>
       <c r="I25" t="n">
-        <v>1.197651006711409</v>
+        <v>1.325258141382049</v>
       </c>
     </row>
     <row r="26">
@@ -1287,7 +1287,7 @@
         <v>0.5</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3182692307692307</v>
+        <v>0.3185096153846154</v>
       </c>
       <c r="E26" t="n">
         <v>0.3175480769230769</v>
@@ -1296,13 +1296,13 @@
         <v>0.6350961538461538</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99546827794562</v>
+        <v>1.993962264150944</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1584134615384615</v>
+        <v>0.1582932692307692</v>
       </c>
       <c r="I26" t="n">
-        <v>1.868247694334651</v>
+        <v>1.867588932806324</v>
       </c>
     </row>
     <row r="27">
@@ -1313,29 +1313,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Commons category</t>
+          <t>GND ID</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0.5</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1980769230769231</v>
+        <v>0.4040865384615385</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1975961538461538</v>
+        <v>0.4024038461538462</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3951923076923077</v>
+        <v>0.8048076923076923</v>
       </c>
       <c r="G27" t="n">
-        <v>1.995145631067961</v>
+        <v>1.991671624033313</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0985576923076923</v>
+        <v>0.2003605769230769</v>
       </c>
       <c r="I27" t="n">
-        <v>1.325914149443561</v>
+        <v>3.052955665024631</v>
       </c>
     </row>
     <row r="28">
@@ -1346,29 +1346,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GND ID</t>
+          <t>Dimensions author ID</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0.5</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4060096153846154</v>
+        <v>0.1002403846153846</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4043269230769231</v>
+        <v>0.0997596153846154</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8086538461538462</v>
+        <v>0.1995192307692308</v>
       </c>
       <c r="G28" t="n">
-        <v>1.991711071640024</v>
+        <v>1.990407673860912</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2013221153846154</v>
+        <v>0.04963942307692308</v>
       </c>
       <c r="I28" t="n">
-        <v>3.10427135678392</v>
+        <v>1.124024024024024</v>
       </c>
     </row>
     <row r="29">
@@ -1379,29 +1379,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>languages spoken, written or signed</t>
+          <t>VIAF ID</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0.5</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3836538461538462</v>
+        <v>0.4992788461538462</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3817307692307692</v>
+        <v>0.4966346153846154</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7634615384615384</v>
+        <v>0.9932692307692308</v>
       </c>
       <c r="G29" t="n">
-        <v>1.989974937343358</v>
+        <v>1.989407799711122</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1899038461538461</v>
+        <v>0.2469951923076923</v>
       </c>
       <c r="I29" t="n">
-        <v>2.605691056910569</v>
+        <v>74.39285714285741</v>
       </c>
     </row>
     <row r="30">
@@ -1412,29 +1412,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VIAF ID</t>
+          <t>languages spoken, written or signed</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0.5</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4992788461538462</v>
+        <v>0.3855769230769231</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4966346153846154</v>
+        <v>0.3834134615384616</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9932692307692308</v>
+        <v>0.7668269230769231</v>
       </c>
       <c r="G30" t="n">
-        <v>1.989407799711122</v>
+        <v>1.988778054862843</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2469951923076923</v>
+        <v>0.190625</v>
       </c>
       <c r="I30" t="n">
-        <v>74.39285714285741</v>
+        <v>2.635051546391753</v>
       </c>
     </row>
     <row r="31">
@@ -1445,29 +1445,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DBLP author ID</t>
+          <t>image</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0.5</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.2757211538461539</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4009615384615385</v>
+        <v>0.2737980769230769</v>
       </c>
       <c r="F31" t="n">
-        <v>0.801923076923077</v>
+        <v>0.5475961538461539</v>
       </c>
       <c r="G31" t="n">
-        <v>1.985714285714286</v>
+        <v>1.986050566695728</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1990384615384616</v>
+        <v>0.1359375</v>
       </c>
       <c r="I31" t="n">
-        <v>3.009708737864078</v>
+        <v>1.600956429330499</v>
       </c>
     </row>
     <row r="32">
@@ -1478,29 +1478,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>DBLP author ID</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0.5</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.4033653846153846</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2747596153846154</v>
+        <v>0.4004807692307693</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5495192307692308</v>
+        <v>0.8009615384615385</v>
       </c>
       <c r="G32" t="n">
-        <v>1.984375</v>
+        <v>1.98569725864124</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1362980769230769</v>
+        <v>0.1987980769230769</v>
       </c>
       <c r="I32" t="n">
-        <v>1.6051227321238</v>
+        <v>2.997584541062802</v>
       </c>
     </row>
     <row r="33">
@@ -1518,22 +1518,22 @@
         <v>0.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2923076923076923</v>
+        <v>0.2942307692307692</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2899038461538462</v>
+        <v>0.2920673076923077</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5798076923076924</v>
+        <v>0.5841346153846154</v>
       </c>
       <c r="G33" t="n">
-        <v>1.983552631578948</v>
+        <v>1.985294117647059</v>
       </c>
       <c r="H33" t="n">
-        <v>0.14375</v>
+        <v>0.1449519230769231</v>
       </c>
       <c r="I33" t="n">
-        <v>1.68421052631579</v>
+        <v>1.697109826589595</v>
       </c>
     </row>
     <row r="34">
@@ -1551,22 +1551,22 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1125</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1115384615384615</v>
+        <v>0.1120192307692308</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2230769230769231</v>
+        <v>0.2240384615384615</v>
       </c>
       <c r="G34" t="n">
-        <v>1.982905982905983</v>
+        <v>1.982978723404256</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05528846153846154</v>
+        <v>0.05552884615384616</v>
       </c>
       <c r="I34" t="n">
-        <v>1.142326732673267</v>
+        <v>1.143122676579926</v>
       </c>
     </row>
     <row r="35">
@@ -1584,22 +1584,22 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3824519230769231</v>
+        <v>0.3807692307692308</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3788461538461538</v>
+        <v>0.3771634615384615</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7576923076923077</v>
+        <v>0.7543269230769231</v>
       </c>
       <c r="G35" t="n">
-        <v>1.981143934632307</v>
+        <v>1.981060606060606</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1876201923076923</v>
+        <v>0.1867788461538462</v>
       </c>
       <c r="I35" t="n">
-        <v>2.548611111111111</v>
+        <v>2.52054794520548</v>
       </c>
     </row>
     <row r="36">
@@ -1610,29 +1610,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Freebase ID</t>
+          <t>ORCID iD</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0.5</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3689903846153846</v>
+        <v>0.1711538461538462</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.1694711538461539</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.3389423076923077</v>
       </c>
       <c r="G36" t="n">
-        <v>1.980456026058632</v>
+        <v>1.980337078651685</v>
       </c>
       <c r="H36" t="n">
-        <v>0.180889423076923</v>
+        <v>0.08389423076923078</v>
       </c>
       <c r="I36" t="n">
-        <v>2.34375</v>
+        <v>1.253818181818181</v>
       </c>
     </row>
     <row r="37">
@@ -1650,22 +1650,22 @@
         <v>0.5</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1954326923076923</v>
+        <v>0.1949519230769231</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1935096153846154</v>
+        <v>0.1930288461538462</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3870192307692308</v>
+        <v>0.3860576923076923</v>
       </c>
       <c r="G37" t="n">
-        <v>1.980319803198032</v>
+        <v>1.980271270036992</v>
       </c>
       <c r="H37" t="n">
-        <v>0.09579326923076924</v>
+        <v>0.09555288461538462</v>
       </c>
       <c r="I37" t="n">
-        <v>1.312549019607843</v>
+        <v>1.311276429130776</v>
       </c>
     </row>
     <row r="38">
@@ -1676,29 +1676,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ORCID iD</t>
+          <t>ACM Digital Library author ID</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>0.5</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.2382211538461539</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1675480769230769</v>
+        <v>0.2355769230769231</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3350961538461538</v>
+        <v>0.4711538461538462</v>
       </c>
       <c r="G38" t="n">
-        <v>1.980113636363636</v>
+        <v>1.977800201816347</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08293269230769229</v>
+        <v>0.1164663461538462</v>
       </c>
       <c r="I38" t="n">
-        <v>1.249457700650759</v>
+        <v>1.440454545454545</v>
       </c>
     </row>
     <row r="39">
@@ -1709,29 +1709,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ACM Digital Library author ID</t>
+          <t>award received</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>0.5</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2377403846153846</v>
+        <v>0.3146634615384615</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2348557692307693</v>
+        <v>0.3108173076923077</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4697115384615385</v>
+        <v>0.6216346153846154</v>
       </c>
       <c r="G39" t="n">
-        <v>1.975733063700708</v>
+        <v>1.975553857906799</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1159855769230769</v>
+        <v>0.1534855769230769</v>
       </c>
       <c r="I39" t="n">
-        <v>1.437443336355394</v>
+        <v>1.81130876747141</v>
       </c>
     </row>
     <row r="40">
@@ -1742,29 +1742,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>award received</t>
+          <t>country of citizenship</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>0.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3158653846153846</v>
+        <v>0.46875</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3117788461538462</v>
+        <v>0.4622596153846154</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6235576923076923</v>
+        <v>0.9245192307692308</v>
       </c>
       <c r="G40" t="n">
-        <v>1.974124809741248</v>
+        <v>1.972307692307692</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2278846153846154</v>
       </c>
       <c r="I40" t="n">
-        <v>1.817369093231162</v>
+        <v>7.038216560509558</v>
       </c>
     </row>
     <row r="41">
@@ -1775,29 +1775,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>country of citizenship</t>
+          <t>Google Scholar author ID</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0.5</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4699519230769231</v>
+        <v>0.2050480769230769</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4632211538461538</v>
+        <v>0.2012019230769231</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9264423076923076</v>
+        <v>0.4024038461538462</v>
       </c>
       <c r="G41" t="n">
-        <v>1.971355498721228</v>
+        <v>1.962485345838218</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2282451923076924</v>
+        <v>0.09867788461538464</v>
       </c>
       <c r="I41" t="n">
-        <v>7.205882352941179</v>
+        <v>1.330249396621078</v>
       </c>
     </row>
     <row r="42">
@@ -1808,29 +1808,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Google Scholar author ID</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0.5</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2052884615384616</v>
+        <v>0.4435096153846154</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2014423076923077</v>
+        <v>0.434375</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4028846153846154</v>
+        <v>0.86875</v>
       </c>
       <c r="G42" t="n">
-        <v>1.962529274004684</v>
+        <v>1.958807588075881</v>
       </c>
       <c r="H42" t="n">
-        <v>0.09879807692307692</v>
+        <v>0.2126201923076924</v>
       </c>
       <c r="I42" t="n">
-        <v>1.330917874396135</v>
+        <v>4.239926739926741</v>
       </c>
     </row>
     <row r="43">
@@ -1841,29 +1841,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>employer</t>
+          <t>field of work</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0.5</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4444711538461538</v>
+        <v>0.2673076923076923</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4350961538461539</v>
+        <v>0.2612980769230769</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8701923076923077</v>
+        <v>0.5225961538461539</v>
       </c>
       <c r="G43" t="n">
-        <v>1.957815035154137</v>
+        <v>1.955035971223022</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2128605769230769</v>
+        <v>0.1276442307692308</v>
       </c>
       <c r="I43" t="n">
-        <v>4.27962962962963</v>
+        <v>1.534743202416919</v>
       </c>
     </row>
     <row r="44">
@@ -1874,29 +1874,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>field of work</t>
+          <t>date of birth</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>0.5</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2685096153846154</v>
+        <v>0.5009615384615385</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2622596153846154</v>
+        <v>0.4872596153846154</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5245192307692308</v>
+        <v>0.9745192307692307</v>
       </c>
       <c r="G44" t="n">
-        <v>1.953446732318711</v>
+        <v>1.945297504798464</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1280048076923077</v>
+        <v>0.2367788461538461</v>
       </c>
       <c r="I44" t="n">
-        <v>1.538422649140546</v>
+        <v>19.58490566037734</v>
       </c>
     </row>
     <row r="45">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>date of birth</t>
+          <t>doctoral student</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>0.5</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5016826923076924</v>
+        <v>0.2918269230769231</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4877403846153846</v>
+        <v>0.2824519230769231</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9754807692307692</v>
+        <v>0.5649038461538461</v>
       </c>
       <c r="G45" t="n">
-        <v>1.944417824628653</v>
+        <v>1.935749588138385</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2368990384615384</v>
+        <v>0.1365384615384615</v>
       </c>
       <c r="I45" t="n">
-        <v>20.32352941176469</v>
+        <v>1.627624309392265</v>
       </c>
     </row>
     <row r="46">
@@ -1940,29 +1940,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>doctoral student</t>
+          <t>family name</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>0.5</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2925480769230769</v>
+        <v>0.4384615384615385</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2834134615384615</v>
+        <v>0.4105769230769231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5668269230769231</v>
+        <v>0.8211538461538461</v>
       </c>
       <c r="G46" t="n">
-        <v>1.937551355792933</v>
+        <v>1.87280701754386</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1371394230769231</v>
+        <v>0.1913461538461539</v>
       </c>
       <c r="I46" t="n">
-        <v>1.633185349611543</v>
+        <v>3.139784946236559</v>
       </c>
     </row>
     <row r="47">
@@ -1973,29 +1973,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>family name</t>
+          <t>sex or gender</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>0.5</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4350961538461539</v>
+        <v>0.5971153846153846</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4091346153846154</v>
+        <v>0.5</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8182692307692307</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1.880662983425414</v>
+        <v>1.674718196457327</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1915865384615384</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.108465608465608</v>
+        <v>0.2014423076923077</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2006,64 +2008,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sex or gender</t>
+          <t>MR Author ID</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0.5</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5995192307692307</v>
+        <v>0.3574519230769231</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="G48" t="n">
-        <v>1.668003207698476</v>
+        <v>1.560188298587761</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2002403846153847</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>MR Author ID</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.3596153846153846</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.2786057692307692</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.5572115384615385</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.549465240641711</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.09879807692307692</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.446254071661238</v>
+        <v>0.1001201923076923</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.452717391304348</v>
       </c>
     </row>
   </sheetData>
